--- a/biology/Botanique/Cunninghamia_lanceolata/Cunninghamia_lanceolata.xlsx
+++ b/biology/Botanique/Cunninghamia_lanceolata/Cunninghamia_lanceolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cunninghamia lanceolata est une espèce de conifère persistant de la famille des Taxodiaceae selon la classification classique, ou de celle des Cupressaceae selon la classification phylogénétique. C'est la seule espèce actuellement acceptée dans le genre Cunninghamia. Il est parfois appelé Cunninghamia de Chine, Araucaria de Chine ou Sapin de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand conifère est originaire des régions tempérées à subtropicales de Chine. On le trouve aussi à Taïwan et nord du Vietnam.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il atteint jusqu'à 50-55 mètres de haut. Sa forme est conique, avec des branches horizontales retombantes aux extrémités.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cunninghamia lanceolata var. konishii (Lamb.) Hook.
 Cunninghamia lanceolata var. lanceolata (Hayata) Y.Fujita</t>
@@ -604,7 +622,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Habitus
